--- a/biology/Botanique/Georges_Bouvet/Georges_Bouvet.xlsx
+++ b/biology/Botanique/Georges_Bouvet/Georges_Bouvet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Bouvet est un pharmacien et un botaniste français, né le 5 juillet 1850 à Angers, où il est mort le 26 mars 1929[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Bouvet est un pharmacien et un botaniste français, né le 5 juillet 1850 à Angers, où il est mort le 26 mars 1929.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études générales au Lycée David d'Angers, il entre à l'École de Pharmacie d'Angers, dont il devient le préparateur des cours de pharmacie, de chimie et d'histoire naturelle, et obtient le prix d'excellence les 3 années consécutives. Reçu pharmacien le 11 octobre 1876, il fonde, rue Lenepveu, la pharmacie qu'il ne quittera qu'en juillet 1919.
 Élève du botaniste Alexandre Boreau, il crée avec son cousin Gustave Moreau et ses amis Henri Huttemin, Stanislas Millet, Ernest Préaubert et Anatole-Joseph Verrier, le 16 avril 1871, la Société d'études scientifiques d'Angers qu'il préside les premières années. Cette société scientifique, renommée plus tard Société d'études scientifiques de l'Anjou, existe encore au XXIe siècle.
